--- a/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic50/obj_recordpercentage0parallel_number3dynamic50_34959.xlsx
+++ b/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic50/obj_recordpercentage0parallel_number3dynamic50_34959.xlsx
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.637419400000002</v>
+        <v>2.691595899999999</v>
       </c>
     </row>
   </sheetData>
